--- a/Buat Simulasi.xlsx
+++ b/Buat Simulasi.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACC-Seamless-ACCPartner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\magangg\ACC-ACCPartner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0376C9-0A50-4ACC-8396-6CD75223C725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{EDFC1BFF-D983-4395-B5C7-8C2E9A585056}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
   <si>
     <t>AreaPengajuan</t>
   </si>
@@ -96,27 +95,6 @@
     <t>FATMAWATI</t>
   </si>
   <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>ALL NEW ALPHARD</t>
-  </si>
-  <si>
-    <t>2.4 G LUX A/T</t>
-  </si>
-  <si>
-    <t>2.4 X A/T</t>
-  </si>
-  <si>
-    <t>2.4A/T FULL OPT</t>
-  </si>
-  <si>
-    <t>2.4A/T S PRIME</t>
-  </si>
-  <si>
-    <t>ALL NEW ALTIS</t>
-  </si>
-  <si>
     <t>1.8 E M/T</t>
   </si>
   <si>
@@ -129,9 +107,6 @@
     <t>1.8J ALTIS M/T</t>
   </si>
   <si>
-    <t>ALL NEW AVANZA</t>
-  </si>
-  <si>
     <t>1.3 M/T</t>
   </si>
   <si>
@@ -283,12 +258,45 @@
   </si>
   <si>
     <t>OTR dibawah 20% bisa tembus</t>
+  </si>
+  <si>
+    <t>Paket</t>
+  </si>
+  <si>
+    <t>PKT DHT SAHABAT</t>
+  </si>
+  <si>
+    <t>DAIHATSU</t>
+  </si>
+  <si>
+    <t>ALL NEW TERIOS</t>
+  </si>
+  <si>
+    <t>ALL NEW SIRION</t>
+  </si>
+  <si>
+    <t>GRAND NEW XENIA</t>
+  </si>
+  <si>
+    <t>SIGRA</t>
+  </si>
+  <si>
+    <t>CUSTOM A/T</t>
+  </si>
+  <si>
+    <t>CUSTOM M/T</t>
+  </si>
+  <si>
+    <t>R A/T</t>
+  </si>
+  <si>
+    <t>R A/T CSTM E4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -637,32 +645,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED7D800-5620-47F0-80F5-3849BFB32F0D}">
-  <dimension ref="A1:X14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="38.5703125" customWidth="1"/>
-    <col min="23" max="23" width="17.28515625" customWidth="1"/>
-    <col min="24" max="24" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.5703125" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" customWidth="1"/>
+    <col min="25" max="25" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,762 +679,808 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>70</v>
-      </c>
       <c r="V1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" t="s">
         <v>73</v>
       </c>
-      <c r="W1" t="s">
-        <v>77</v>
-      </c>
-      <c r="X1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
+      <c r="C2" t="s">
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1">
+        <v>79</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="1">
         <v>2019</v>
       </c>
-      <c r="G2" s="1">
-        <v>120000000</v>
-      </c>
       <c r="H2" s="1"/>
-      <c r="I2">
+      <c r="I2" s="1"/>
+      <c r="J2">
         <v>6000000</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
+      <c r="L2" t="s">
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" t="s">
-        <v>71</v>
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="V2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="W2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
+      <c r="C3" t="s">
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
+        <v>79</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="1">
         <v>2019</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>120000000</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3">
+      <c r="I3" s="1"/>
+      <c r="J3">
         <v>6000000</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
+      <c r="L3" t="s">
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" t="s">
-        <v>71</v>
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="V3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
+      <c r="C4" t="s">
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1">
+        <v>79</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="1">
         <v>2019</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>120000000</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4">
+      <c r="I4" s="1"/>
+      <c r="J4">
         <v>6000000</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>24</v>
       </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>41</v>
+      <c r="L4" t="s">
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" t="s">
-        <v>71</v>
+        <v>36</v>
+      </c>
+      <c r="T4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="V4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="W4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
+      <c r="C5" t="s">
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1">
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="1">
         <v>2019</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>120000000</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5">
+      <c r="I5" s="1"/>
+      <c r="J5">
         <v>6000000</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>36</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" t="s">
         <v>37</v>
       </c>
-      <c r="P5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U5" t="s">
-        <v>71</v>
+      <c r="T5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="V5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="X5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>2019</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>120000000</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6">
+      <c r="I6" s="1"/>
+      <c r="J6">
         <v>60000000</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>12</v>
       </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="s">
-        <v>40</v>
+      <c r="L6" t="s">
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" t="s">
         <v>38</v>
       </c>
-      <c r="R6" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" t="s">
-        <v>57</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U6" t="s">
-        <v>71</v>
+      <c r="T6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="V6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="W6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="X6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
+      <c r="C7" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H7" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7">
+        <v>60000000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G7" s="1">
-        <v>120000000</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7">
-        <v>60000000</v>
-      </c>
-      <c r="J7" s="1">
-        <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>41</v>
-      </c>
       <c r="Q7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" t="s">
         <v>39</v>
       </c>
-      <c r="R7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" t="s">
-        <v>71</v>
+      <c r="T7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="V7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="W7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="X7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
+      <c r="C8" t="s">
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H8" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="I8" s="1">
         <v>30</v>
       </c>
-      <c r="F8" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G8" s="1">
-        <v>120000000</v>
-      </c>
-      <c r="H8" s="1">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>60</v>
       </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" t="s">
-        <v>59</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U8" t="s">
-        <v>71</v>
+      <c r="T8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="W8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="X8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
+      <c r="C9" t="s">
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1">
+        <v>80</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1">
         <v>2019</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>120000000</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>20</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>12</v>
       </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" t="s">
-        <v>40</v>
+      <c r="L9" t="s">
+        <v>29</v>
       </c>
       <c r="Q9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="S9" t="s">
-        <v>60</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U9" t="s">
-        <v>71</v>
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="W9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="X9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
+      <c r="C10" t="s">
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H10" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G10" s="1">
-        <v>120000000</v>
-      </c>
-      <c r="H10" s="1">
-        <v>20</v>
-      </c>
-      <c r="J10" s="1">
-        <v>24</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>38</v>
-      </c>
       <c r="R10" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U10" t="s">
-        <v>71</v>
+        <v>42</v>
+      </c>
+      <c r="T10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="W10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="X10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
+      <c r="C11" t="s">
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1">
+        <v>81</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1">
         <v>2019</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>120000000</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>25</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>24</v>
       </c>
-      <c r="K11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" t="s">
-        <v>41</v>
+      <c r="L11" t="s">
+        <v>29</v>
       </c>
       <c r="Q11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U11" t="s">
-        <v>72</v>
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="V11" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="W11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="X11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
+      <c r="C12" t="s">
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H12" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>35</v>
+      </c>
+      <c r="K12" s="1">
+        <v>60</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G12" s="1">
-        <v>120000000</v>
-      </c>
-      <c r="H12" s="1">
-        <v>35</v>
-      </c>
-      <c r="J12" s="1">
-        <v>60</v>
-      </c>
-      <c r="K12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>39</v>
-      </c>
       <c r="R12" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="S12" t="s">
-        <v>63</v>
-      </c>
-      <c r="T12" s="2"/>
-      <c r="U12" t="s">
-        <v>72</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="T12" t="s">
+        <v>55</v>
+      </c>
+      <c r="U12" s="2"/>
       <c r="V12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="W12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="X12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
+      <c r="C13" t="s">
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H13" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>40</v>
+      </c>
+      <c r="K13" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G13" s="1">
-        <v>120000000</v>
-      </c>
-      <c r="H13" s="1">
-        <v>40</v>
-      </c>
-      <c r="J13" s="1">
-        <v>36</v>
-      </c>
-      <c r="P13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>38</v>
-      </c>
       <c r="R13" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="S13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V13" t="s">
         <v>64</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="W13" t="s">
         <v>66</v>
       </c>
-      <c r="U13" t="s">
-        <v>72</v>
-      </c>
-      <c r="V13" t="s">
-        <v>74</v>
-      </c>
-      <c r="W13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>2019</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>120000000</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14">
+      <c r="I14" s="1"/>
+      <c r="J14">
         <v>60000000</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>12</v>
       </c>
-      <c r="P14" t="s">
-        <v>40</v>
-      </c>
       <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" t="s">
         <v>38</v>
       </c>
-      <c r="R14" t="s">
-        <v>46</v>
-      </c>
-      <c r="S14" t="s">
-        <v>57</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U14" t="s">
+      <c r="T14" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V14" t="s">
+        <v>63</v>
+      </c>
+      <c r="W14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X14" t="s">
         <v>71</v>
       </c>
-      <c r="V14" t="s">
-        <v>80</v>
-      </c>
-      <c r="W14" t="s">
-        <v>79</v>
-      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Buat Simulasi.xlsx
+++ b/Buat Simulasi.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="90">
   <si>
     <t>AreaPengajuan</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>R A/T CSTM E4</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>PaketOnOff</t>
+  </si>
+  <si>
+    <t>DKI Jakarta, Banten, Jawa Barat</t>
   </si>
 </sst>
 </file>
@@ -646,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +680,7 @@
     <col min="25" max="25" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,10 +754,16 @@
         <v>69</v>
       </c>
       <c r="Y1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -803,10 +818,13 @@
         <v>70</v>
       </c>
       <c r="Y2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -862,11 +880,11 @@
       <c r="X3" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -923,7 +941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -980,7 +998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1037,7 +1055,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1094,7 +1112,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1150,7 +1168,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1206,7 +1224,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1262,7 +1280,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1315,7 +1333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1369,7 +1387,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1422,7 +1440,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1476,10 +1494,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E16" s="1"/>
     </row>
   </sheetData>

--- a/Buat Simulasi.xlsx
+++ b/Buat Simulasi.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="97">
   <si>
     <t>AreaPengajuan</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Tahun5</t>
   </si>
   <si>
-    <t>Pembayaran</t>
-  </si>
-  <si>
     <t>CreditProtection</t>
   </si>
   <si>
@@ -293,13 +290,37 @@
     <t>R A/T CSTM E4</t>
   </si>
   <si>
-    <t>On</t>
-  </si>
-  <si>
     <t>PaketOnOff</t>
   </si>
   <si>
     <t>DKI Jakarta, Banten, Jawa Barat</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>TDP</t>
+  </si>
+  <si>
+    <t>PDC</t>
+  </si>
+  <si>
+    <t>Angsuran</t>
+  </si>
+  <si>
+    <t>Pembayaran1</t>
+  </si>
+  <si>
+    <t>Pembayaran2</t>
+  </si>
+  <si>
+    <t>Pembayaran3</t>
+  </si>
+  <si>
+    <t>Pembayaran4</t>
+  </si>
+  <si>
+    <t>Pembayaran5</t>
   </si>
 </sst>
 </file>
@@ -655,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,16 +692,17 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="38.5703125" customWidth="1"/>
-    <col min="24" max="24" width="17.28515625" customWidth="1"/>
-    <col min="25" max="25" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38.5703125" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" customWidth="1"/>
+    <col min="29" max="29" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -730,115 +752,156 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1">
         <v>2019</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>250000000</v>
+      </c>
       <c r="I2" s="1"/>
-      <c r="J2">
-        <v>6000000</v>
-      </c>
       <c r="K2" s="1">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" t="s">
-        <v>63</v>
-      </c>
       <c r="W2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>87</v>
+        <v>44</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="Z2" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2">
+        <v>100000000</v>
+      </c>
+      <c r="AE2">
+        <v>2000000</v>
+      </c>
+      <c r="AF2">
+        <v>100000</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="1">
         <v>2019</v>
@@ -854,51 +917,51 @@
         <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="X3" t="s">
-        <v>70</v>
+        <v>45</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="Z3" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="1">
         <v>2019</v>
@@ -914,48 +977,48 @@
         <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="V4" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="1">
         <v>2019</v>
@@ -971,48 +1034,48 @@
         <v>36</v>
       </c>
       <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="V5" t="s">
-        <v>63</v>
-      </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="X5" t="s">
-        <v>70</v>
+        <v>47</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G6" s="1">
         <v>2019</v>
@@ -1028,48 +1091,48 @@
         <v>12</v>
       </c>
       <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" t="s">
-        <v>49</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V6" t="s">
-        <v>63</v>
-      </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="X6" t="s">
-        <v>70</v>
+        <v>48</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1">
         <v>2019</v>
@@ -1085,48 +1148,48 @@
         <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="V7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1">
         <v>2019</v>
@@ -1141,48 +1204,48 @@
         <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" t="s">
         <v>31</v>
       </c>
-      <c r="S8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="V8" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="W8" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="X8" t="s">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1">
         <v>2019</v>
@@ -1197,48 +1260,48 @@
         <v>12</v>
       </c>
       <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V9" t="s">
-        <v>63</v>
-      </c>
       <c r="W9" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="X9" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1">
         <v>2019</v>
@@ -1253,48 +1316,48 @@
         <v>24</v>
       </c>
       <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" t="s">
-        <v>42</v>
-      </c>
-      <c r="T10" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="V10" t="s">
-        <v>63</v>
-      </c>
       <c r="W10" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s">
-        <v>70</v>
+        <v>52</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1">
         <v>2019</v>
@@ -1309,45 +1372,45 @@
         <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" t="s">
-        <v>54</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="V11" t="s">
-        <v>64</v>
-      </c>
-      <c r="W11" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="X11" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1">
         <v>2019</v>
@@ -1362,46 +1425,46 @@
         <v>60</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" t="s">
         <v>31</v>
       </c>
-      <c r="S12" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" t="s">
-        <v>55</v>
-      </c>
-      <c r="U12" s="2"/>
       <c r="V12" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="W12" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="X12" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1">
         <v>2019</v>
@@ -1416,45 +1479,45 @@
         <v>36</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T13" t="s">
-        <v>56</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="V13" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="W13" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="X13" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G14" s="1">
         <v>2019</v>
@@ -1470,34 +1533,34 @@
         <v>12</v>
       </c>
       <c r="Q14" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" t="s">
-        <v>30</v>
-      </c>
-      <c r="S14" t="s">
-        <v>38</v>
-      </c>
-      <c r="T14" t="s">
-        <v>49</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="V14" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="W14" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="X14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" t="s">
         <v>71</v>
       </c>
+      <c r="AB14" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E16" s="1"/>
     </row>
   </sheetData>

--- a/Buat Simulasi.xlsx
+++ b/Buat Simulasi.xlsx
@@ -1,37 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\magangg\ACC-ACCPartner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\Clone ACCPartner 06072020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9D45EF-F180-4A49-8276-AC7411CC52FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Simulasi Kredit" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="94">
   <si>
     <t>AreaPengajuan</t>
   </si>
@@ -202,12 +199,123 @@
   </si>
   <si>
     <t>ADDM</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Candra</t>
+  </si>
+  <si>
+    <t>Daniella</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>085242869607</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>min otr is 20jt</t>
+  </si>
+  <si>
+    <t>input empty</t>
+  </si>
+  <si>
+    <t>TDP min 8 digit</t>
+  </si>
+  <si>
+    <t>Angsuran min 6 digit</t>
+  </si>
+  <si>
+    <t>PDC min 4 digit</t>
+  </si>
+  <si>
+    <t>plat empty</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>nama ktp (3-30 karakter)</t>
+  </si>
+  <si>
+    <t>nama ktp empty</t>
+  </si>
+  <si>
+    <t>no hp empty</t>
+  </si>
+  <si>
+    <t>no hp (10-15 digit)</t>
+  </si>
+  <si>
+    <t>tahun tidak sesuai</t>
+  </si>
+  <si>
+    <t>type empty</t>
+  </si>
+  <si>
+    <t>model empty</t>
+  </si>
+  <si>
+    <t>8675</t>
+  </si>
+  <si>
+    <t>PKT SAHABAT DHT LAYER 2</t>
+  </si>
+  <si>
+    <t>PKT SAHABAT NON BENEFIT DHT</t>
+  </si>
+  <si>
+    <t>PKT SAHABAT DHT LAYER 3</t>
+  </si>
+  <si>
+    <t>BINTARO</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Jawa Tengah dan DIY</t>
+  </si>
+  <si>
+    <t>SOLO</t>
+  </si>
+  <si>
+    <t>Kalimantan, Sulawesi, Papua dan sekitarnya</t>
+  </si>
+  <si>
+    <t>MANADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,15 +325,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,11 +353,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,6 +381,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,11 +717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,11 +1197,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,4 +2651,3312 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF0B1F7-2DDB-47EA-BB01-62172C1BAF01}">
+  <dimension ref="A1:AD24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I2" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O2" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I3" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
+        <v>12</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P3" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I4" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5">
+        <v>12</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O4" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P4" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I5" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5">
+        <v>12</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O5" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2020</v>
+      </c>
+      <c r="I6" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <v>12</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O6" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P6" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="6">
+        <v>25000000</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>12</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>24</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P8" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1700000</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
+        <v>36</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I10" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
+        <v>12</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P10" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I11" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
+        <v>12</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1234567</v>
+      </c>
+      <c r="O11" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P11" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I12" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
+        <v>12</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I13" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
+        <v>12</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O13" s="7">
+        <v>12345</v>
+      </c>
+      <c r="P13" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I14" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>12</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O14" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I15" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
+        <v>12</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O15" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P15" s="7">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="6">
+        <v>24000000</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <v>60</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O16" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P16" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I17" s="6">
+        <v>20000000</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
+        <v>12</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O17" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P17" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I18" s="6">
+        <v>21000000</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
+        <v>24</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I19" s="6">
+        <v>22000000</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
+        <v>36</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O19" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P19" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I20" s="6">
+        <v>23000000</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5">
+        <v>48</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I21" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
+        <v>12</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O21" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P21" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD21" s="5"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2020</v>
+      </c>
+      <c r="I22" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
+        <v>24</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD22" s="5"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I23" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5">
+        <v>36</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O23" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P23" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD23" s="5"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2020</v>
+      </c>
+      <c r="I24" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5">
+        <v>48</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD24" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EDB788-59D8-4D9D-87C4-BC0B56EB9FC7}">
+  <dimension ref="A1:AD24"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:AD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="30" max="30" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I2" s="6">
+        <v>20000000</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O2" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P2" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I3" s="6">
+        <v>21000000</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
+        <v>24</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I4" s="6">
+        <v>22000000</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5">
+        <v>36</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O4" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P4" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I5" s="6">
+        <v>23000000</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5">
+        <v>48</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="6">
+        <v>24000000</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <v>60</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O6" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P6" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="6">
+        <v>25000000</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>12</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>24</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P8" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1700000</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
+        <v>36</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I10" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
+        <v>12</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P10" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I11" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
+        <v>12</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1234567</v>
+      </c>
+      <c r="O11" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P11" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I12" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
+        <v>12</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I13" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
+        <v>12</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O13" s="7">
+        <v>12345</v>
+      </c>
+      <c r="P13" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I14" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>12</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O14" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I15" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
+        <v>12</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O15" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P15" s="7">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I16" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <v>12</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O16" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P16" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I17" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
+        <v>12</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O17" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P17" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I18" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
+        <v>12</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O18" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P18" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I19" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
+        <v>12</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O19" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P19" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I20" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5">
+        <v>12</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O20" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P20" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I21" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
+        <v>12</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O21" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P21" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD21" s="5"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2020</v>
+      </c>
+      <c r="I22" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
+        <v>24</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD22" s="5"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2019</v>
+      </c>
+      <c r="I23" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5">
+        <v>36</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="5">
+        <v>200000000</v>
+      </c>
+      <c r="O23" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="P23" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD23" s="5"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2020</v>
+      </c>
+      <c r="I24" s="6">
+        <v>250000000</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5">
+        <v>48</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD24" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>